--- a/DowningLLP/UserData.xlsx
+++ b/DowningLLP/UserData.xlsx
@@ -428,7 +428,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Email address:Beryl523@yopmail.com</t>
+          <t>Email address:Thomas412@yopmail.com</t>
         </is>
       </c>
       <c r="C2" t="s">
